--- a/DRE/IPT_ACRM_DRE_Indice_150521.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150521.xlsx
@@ -739,12 +739,6 @@
     <t>Inventario de WF</t>
   </si>
   <si>
-    <t>TP8 - Actualización periódica valores crédito otorgados por compañía riesgo crediticio</t>
-  </si>
-  <si>
-    <t>TP9 - Actualización periódica valores riesgo otorgados por comercial</t>
-  </si>
-  <si>
     <t>TP10 - Tarea periódica de generación de IngeFlash (según calendario anual planificado)</t>
   </si>
   <si>
@@ -848,6 +842,12 @@
   </si>
   <si>
     <t>BD13 - Estrategia y previsión</t>
+  </si>
+  <si>
+    <t>TP8 - Actualización periódica valores de crédito otorgado</t>
+  </si>
+  <si>
+    <t>TP9 - Actualización periódica valores de riesgo</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:AI188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2062,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="12">
@@ -2105,7 +2105,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="12">
@@ -2148,7 +2148,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="12">
@@ -2191,7 +2191,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="31"/>
       <c r="C17" s="32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="12"/>
@@ -2368,7 +2368,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="12"/>
@@ -2498,7 +2498,7 @@
     <row r="24" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="32" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="12">
@@ -2547,7 +2547,7 @@
     <row r="25" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="12">
@@ -2596,7 +2596,7 @@
     <row r="26" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="32" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="12">
@@ -2637,7 +2637,7 @@
     <row r="27" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="32" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="12">
@@ -2680,7 +2680,7 @@
     <row r="28" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="12">
@@ -2723,7 +2723,7 @@
     <row r="29" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="12">
@@ -2766,7 +2766,7 @@
     <row r="30" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="12">
@@ -2809,7 +2809,7 @@
     <row r="31" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="32" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="12">
@@ -2852,7 +2852,7 @@
     <row r="32" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="32" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="12">
@@ -2897,7 +2897,7 @@
     <row r="33" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="12">
@@ -2942,7 +2942,7 @@
     <row r="34" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="32" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="12">
@@ -2985,7 +2985,7 @@
     <row r="35" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="32" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="12">
@@ -3030,7 +3030,7 @@
     <row r="36" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="12">
@@ -3075,7 +3075,7 @@
     <row r="37" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="32" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="12">
@@ -3118,7 +3118,7 @@
     <row r="38" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="32" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="12">
@@ -4095,7 +4095,7 @@
     <row r="62" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
       <c r="C62" s="32" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="12"/>
@@ -4132,7 +4132,7 @@
     <row r="63" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
       <c r="C63" s="32" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="12"/>
@@ -4169,7 +4169,7 @@
     <row r="64" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="31"/>
       <c r="C64" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="12"/>
@@ -4206,7 +4206,7 @@
     <row r="65" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="31"/>
       <c r="C65" s="32" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="12"/>
@@ -4243,7 +4243,7 @@
     <row r="66" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="31"/>
       <c r="C66" s="32" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="12"/>
@@ -4280,7 +4280,7 @@
     <row r="67" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="31"/>
       <c r="C67" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="12"/>
@@ -4317,7 +4317,7 @@
     <row r="68" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
       <c r="C68" s="32" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="12"/>
@@ -4354,7 +4354,7 @@
     <row r="69" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="31"/>
       <c r="C69" s="32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D69" s="33"/>
       <c r="E69" s="12"/>
@@ -4563,7 +4563,7 @@
     <row r="74" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D74" s="33"/>
       <c r="E74" s="12">
@@ -4904,7 +4904,7 @@
     <row r="83" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="12">
@@ -4945,7 +4945,7 @@
     <row r="84" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="12">
@@ -4984,7 +4984,7 @@
     <row r="85" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="12">
@@ -5023,7 +5023,7 @@
     <row r="86" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="12">
@@ -5062,7 +5062,7 @@
     <row r="87" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="12">
@@ -5101,7 +5101,7 @@
     <row r="88" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="12">
@@ -5140,7 +5140,7 @@
     <row r="89" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="12">
@@ -5179,7 +5179,7 @@
     <row r="90" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
       <c r="C90" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="12">

--- a/DRE/IPT_ACRM_DRE_Indice_150521.xlsx
+++ b/DRE/IPT_ACRM_DRE_Indice_150521.xlsx
@@ -688,30 +688,12 @@
     <t>WF3 - Register product on SAP</t>
   </si>
   <si>
-    <t>WF4 - Binding offer request</t>
-  </si>
-  <si>
     <t>WF5 - Logistics</t>
   </si>
   <si>
-    <t>WF6 - Legal Requirements</t>
-  </si>
-  <si>
-    <t>WF7 - Special Prices</t>
-  </si>
-  <si>
-    <t>WF8 - Technical Support</t>
-  </si>
-  <si>
-    <t>WF9 - Delivery Times</t>
-  </si>
-  <si>
     <t>WF10 - Financial credit</t>
   </si>
   <si>
-    <t>WF11 - Item Price Double-Check</t>
-  </si>
-  <si>
     <t>WF12 - Account creation</t>
   </si>
   <si>
@@ -832,9 +814,6 @@
     <t>BD8 - Precios de referencia</t>
   </si>
   <si>
-    <t xml:space="preserve">BD10 - </t>
-  </si>
-  <si>
     <t>BD11 - Personal</t>
   </si>
   <si>
@@ -848,6 +827,27 @@
   </si>
   <si>
     <t>TP9 - Actualización periódica valores de riesgo</t>
+  </si>
+  <si>
+    <t>BD10 - Referencias</t>
+  </si>
+  <si>
+    <t>WF6 - Legal requirements</t>
+  </si>
+  <si>
+    <t>WF7 - Special prices</t>
+  </si>
+  <si>
+    <t>WF8 - Technical support</t>
+  </si>
+  <si>
+    <t>WF9 - Delivery times</t>
+  </si>
+  <si>
+    <t>WF11 - Item price double-check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WF4 - Binding offer </t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:AI188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2062,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="31"/>
       <c r="C14" s="32" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D14" s="37"/>
       <c r="E14" s="12">
@@ -2105,7 +2105,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="31"/>
       <c r="C15" s="32" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D15" s="37"/>
       <c r="E15" s="12">
@@ -2148,7 +2148,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="31"/>
       <c r="C16" s="32" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="12">
@@ -2191,7 +2191,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="31"/>
       <c r="C17" s="32" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="12"/>
@@ -2368,7 +2368,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="31"/>
       <c r="C21" s="32" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="12"/>
@@ -2498,7 +2498,7 @@
     <row r="24" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="32" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D24" s="33"/>
       <c r="E24" s="12">
@@ -2547,7 +2547,7 @@
     <row r="25" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="31"/>
       <c r="C25" s="32" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D25" s="33"/>
       <c r="E25" s="12">
@@ -2596,7 +2596,7 @@
     <row r="26" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
       <c r="C26" s="32" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="12">
@@ -2637,7 +2637,7 @@
     <row r="27" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="32" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="12">
@@ -2680,7 +2680,7 @@
     <row r="28" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D28" s="33"/>
       <c r="E28" s="12">
@@ -2723,7 +2723,7 @@
     <row r="29" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="C29" s="32" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D29" s="33"/>
       <c r="E29" s="12">
@@ -2766,7 +2766,7 @@
     <row r="30" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="C30" s="32" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D30" s="33"/>
       <c r="E30" s="12">
@@ -2809,7 +2809,7 @@
     <row r="31" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="31"/>
       <c r="C31" s="32" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D31" s="33"/>
       <c r="E31" s="12">
@@ -2852,7 +2852,7 @@
     <row r="32" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="31"/>
       <c r="C32" s="32" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D32" s="33"/>
       <c r="E32" s="12">
@@ -2897,7 +2897,7 @@
     <row r="33" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="31"/>
       <c r="C33" s="32" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D33" s="33"/>
       <c r="E33" s="12">
@@ -2942,7 +2942,7 @@
     <row r="34" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="31"/>
       <c r="C34" s="32" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D34" s="33"/>
       <c r="E34" s="12">
@@ -2985,7 +2985,7 @@
     <row r="35" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="31"/>
       <c r="C35" s="32" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="12">
@@ -3030,7 +3030,7 @@
     <row r="36" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="31"/>
       <c r="C36" s="32" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D36" s="33"/>
       <c r="E36" s="12">
@@ -3075,7 +3075,7 @@
     <row r="37" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="31"/>
       <c r="C37" s="32" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D37" s="33"/>
       <c r="E37" s="12">
@@ -3118,7 +3118,7 @@
     <row r="38" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="31"/>
       <c r="C38" s="32" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D38" s="33"/>
       <c r="E38" s="12">
@@ -3268,7 +3268,7 @@
       <c r="A41" s="1"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D41" s="33"/>
       <c r="E41" s="12"/>
@@ -3426,7 +3426,7 @@
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="32" t="s">
-        <v>220</v>
+        <v>273</v>
       </c>
       <c r="E45" s="12">
         <v>1</v>
@@ -3465,7 +3465,7 @@
       <c r="B46" s="32"/>
       <c r="C46" s="32"/>
       <c r="D46" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E46" s="12">
         <v>1</v>
@@ -3504,7 +3504,7 @@
       <c r="B47" s="32"/>
       <c r="C47" s="32"/>
       <c r="D47" s="32" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="E47" s="12">
         <v>1</v>
@@ -3543,7 +3543,7 @@
       <c r="B48" s="32"/>
       <c r="C48" s="32"/>
       <c r="D48" s="32" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="E48" s="12">
         <v>1</v>
@@ -3582,7 +3582,7 @@
       <c r="B49" s="32"/>
       <c r="C49" s="32"/>
       <c r="D49" s="32" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="E49" s="12">
         <v>1</v>
@@ -3621,7 +3621,7 @@
       <c r="B50" s="32"/>
       <c r="C50" s="32"/>
       <c r="D50" s="32" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="E50" s="12">
         <v>1</v>
@@ -3660,7 +3660,7 @@
       <c r="B51" s="32"/>
       <c r="C51" s="32"/>
       <c r="D51" s="32" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E51" s="12">
         <v>1</v>
@@ -3699,7 +3699,7 @@
       <c r="B52" s="32"/>
       <c r="C52" s="32"/>
       <c r="D52" s="32" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="E52" s="12">
         <v>1</v>
@@ -3738,7 +3738,7 @@
       <c r="B53" s="32"/>
       <c r="C53" s="32"/>
       <c r="D53" s="33" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -3819,7 +3819,7 @@
     <row r="55" spans="1:35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="31"/>
       <c r="C55" s="32" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
@@ -3857,7 +3857,7 @@
     <row r="56" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B56" s="31"/>
       <c r="C56" s="32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D56" s="33"/>
       <c r="E56" s="12">
@@ -3900,7 +3900,7 @@
     <row r="57" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B57" s="31"/>
       <c r="C57" s="32" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="12">
@@ -3939,7 +3939,7 @@
     <row r="58" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B58" s="31"/>
       <c r="C58" s="32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="12">
@@ -3978,7 +3978,7 @@
     <row r="59" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B59" s="31"/>
       <c r="C59" s="32" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D59" s="33"/>
       <c r="E59" s="12">
@@ -4017,7 +4017,7 @@
     <row r="60" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B60" s="31"/>
       <c r="C60" s="32" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D60" s="33"/>
       <c r="E60" s="12">
@@ -4056,7 +4056,7 @@
     <row r="61" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B61" s="31"/>
       <c r="C61" s="32" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D61" s="33"/>
       <c r="E61" s="12">
@@ -4095,7 +4095,7 @@
     <row r="62" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B62" s="31"/>
       <c r="C62" s="32" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D62" s="33"/>
       <c r="E62" s="12"/>
@@ -4132,7 +4132,7 @@
     <row r="63" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B63" s="31"/>
       <c r="C63" s="32" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D63" s="33"/>
       <c r="E63" s="12"/>
@@ -4169,7 +4169,7 @@
     <row r="64" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B64" s="31"/>
       <c r="C64" s="32" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D64" s="33"/>
       <c r="E64" s="12"/>
@@ -4206,7 +4206,7 @@
     <row r="65" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B65" s="31"/>
       <c r="C65" s="32" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D65" s="33"/>
       <c r="E65" s="12"/>
@@ -4243,7 +4243,7 @@
     <row r="66" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B66" s="31"/>
       <c r="C66" s="32" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="12"/>
@@ -4280,7 +4280,7 @@
     <row r="67" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B67" s="31"/>
       <c r="C67" s="32" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D67" s="33"/>
       <c r="E67" s="12"/>
@@ -4317,7 +4317,7 @@
     <row r="68" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B68" s="31"/>
       <c r="C68" s="32" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="12"/>
@@ -4354,7 +4354,7 @@
     <row r="69" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B69" s="31"/>
       <c r="C69" s="32" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D69" s="33"/>
       <c r="E69" s="12"/>
@@ -4563,7 +4563,7 @@
     <row r="74" spans="1:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B74" s="32"/>
       <c r="C74" s="32" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="D74" s="33"/>
       <c r="E74" s="12">
@@ -4904,7 +4904,7 @@
     <row r="83" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B83" s="32"/>
       <c r="C83" s="32" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D83" s="33"/>
       <c r="E83" s="12">
@@ -4945,7 +4945,7 @@
     <row r="84" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B84" s="32"/>
       <c r="C84" s="32" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D84" s="33"/>
       <c r="E84" s="12">
@@ -4984,7 +4984,7 @@
     <row r="85" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B85" s="32"/>
       <c r="C85" s="32" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D85" s="33"/>
       <c r="E85" s="12">
@@ -5023,7 +5023,7 @@
     <row r="86" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B86" s="32"/>
       <c r="C86" s="32" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D86" s="33"/>
       <c r="E86" s="12">
@@ -5062,7 +5062,7 @@
     <row r="87" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B87" s="32"/>
       <c r="C87" s="32" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D87" s="33"/>
       <c r="E87" s="12">
@@ -5101,7 +5101,7 @@
     <row r="88" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B88" s="32"/>
       <c r="C88" s="32" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D88" s="33"/>
       <c r="E88" s="12">
@@ -5140,7 +5140,7 @@
     <row r="89" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B89" s="32"/>
       <c r="C89" s="32" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D89" s="33"/>
       <c r="E89" s="12">
@@ -5179,7 +5179,7 @@
     <row r="90" spans="2:35" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B90" s="32"/>
       <c r="C90" s="32" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D90" s="33"/>
       <c r="E90" s="12">
